--- a/biology/Botanique/Pembrokeshire_Earlies/Pembrokeshire_Earlies.xlsx
+++ b/biology/Botanique/Pembrokeshire_Earlies/Pembrokeshire_Earlies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Pembrokeshire Earlies ou Pembrokeshire New Potatoes (pommes de terre nouvelles du Pembrokeshire) sont une production locale de pommes de terre  spécifique du Pays de Galles (Royaume-Uni).
-Cette production a fait l'objet d'une demande de classement en IGP (indication géographique protégée) au niveau européen le 29 janvier 2013[1].  
+Cette production a fait l'objet d'une demande de classement en IGP (indication géographique protégée) au niveau européen le 29 janvier 2013.  
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Caractéristiques du produit</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Pembrokeshire Earlies sont des pommes de terre primeurs de forme ronde ou ovale, plutôt petites (calibre de 15 à 70 mm), à chair blanc crème, à peau lisse et fine, de couleur variable selon les variétés[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Pembrokeshire Earlies sont des pommes de terre primeurs de forme ronde ou ovale, plutôt petites (calibre de 15 à 70 mm), à chair blanc crème, à peau lisse et fine, de couleur variable selon les variétés.
 Aucune variété n'est imposée, sous réserve que les plants utilisés appartiennent à une variété inscrite dans les catalogues officiels européens.
 Ces pommes de terre ont la saveur typique des tubercules « primeurs», sucrée et au goût de noisette.
 </t>
@@ -546,7 +560,9 @@
           <t>Aire géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire géographique de production des Pembrokeshire Earlies comprend la totalité du comté de Pembroke, péninsule située dans l'ouest du pays de Galles et environnée par la mer d'Irlande.
 </t>
@@ -578,6 +594,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
